--- a/src/doc/bitmex账户及秘钥.xlsx
+++ b/src/doc/bitmex账户及秘钥.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy Wang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\express-bitMex\bitMex-web\src\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0498986A-461A-4C4E-94B1-E1DDD47A7A29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DAD71C-3293-411A-A2B4-39E20CB595B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="1095" windowWidth="24855" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>邮箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +73,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>bitmex2019001@protonmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://testnet.bitmex.com/register/XS2C4j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_szNA4XkrB3wxEnfuqMFT0qr</t>
+  </si>
+  <si>
+    <t>KxNHm0WnCaEUKJtakZ8dJkBcc6wxSlisqIBX-SmjFaKUQfHs</t>
+  </si>
+  <si>
+    <t>bitmex2019002@protonmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitmex002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitmex123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zVtf4lLtr4LpBcubuy4IhXFx</t>
+  </si>
+  <si>
+    <t>f49pJyNH5O4UjZekEeUwGykgi5asGXWYc_HBTBhhOuSOzEPy</t>
+  </si>
+  <si>
+    <t>13Oty6FbEaTjY0-8usyQCDd4</t>
+  </si>
+  <si>
+    <t>6wP8DaT_dHWIAZPUqBWX7_Lqb7kGlaysUJ_up8hVyrVU3ZTq</t>
+  </si>
+  <si>
+    <t>bitmex2019003@protonmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitmex003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitmex2019004@protonmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitmex2019005@protonmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitmex004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitmex005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>igCPSRBMArkX5HzADnRqPfBx</t>
+  </si>
+  <si>
+    <t>O9FhhRJYIY8k-tayIrWprfeErxuxM9Cb4zX96gqXqnxzicyE</t>
+  </si>
+  <si>
+    <t>TJTiat2SRXFek00NyZyz1GKU</t>
+  </si>
+  <si>
+    <t>BcyMOuBpw8RMUKW_XworpWqv0Ako7KiSFyPHmwvWj1rOSAjU</t>
+  </si>
+  <si>
+    <t>yn3fOCJ2rQSko4j9yu2SN1IG</t>
+  </si>
+  <si>
+    <t>WSEls0P85M2yXQqMn_tJbcqAnZ9E3QcE7TFin7QPJ4X5u_Gc</t>
+  </si>
+  <si>
+    <t>7IXp4HYQ9xLD6z9X0X7Tly1i</t>
+  </si>
+  <si>
+    <t>MFTQyoQREifbh3qEq_Dy2qCUn2M5Muh9NBGiCm15funsaxav</t>
+  </si>
+  <si>
     <t>https://www.bitmex.com/register/03ZFb7</t>
-  </si>
-  <si>
-    <t>bitmex2019001@protonmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ga_wPGyU4u0YOLtmU_aCbu36</t>
+  </si>
+  <si>
+    <t>pjR7T6Pn-b4oK5HJrE9mxKO9wObAexHh8AzsQunRtKnLizQr</t>
+  </si>
+  <si>
+    <t>MHxxF7Cwasevh8quIbO5ugjohJIRR5gkJm5WHmmY3tnc8VTV</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -vWGEDdMozYGzYmose5V630v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -84,7 +180,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +190,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -120,9 +225,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -403,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E2:K9"/>
+  <dimension ref="E2:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -415,47 +522,52 @@
     <col min="6" max="6" width="14.625" customWidth="1"/>
     <col min="7" max="7" width="20.75" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="27.25" customWidth="1"/>
-    <col min="10" max="10" width="50.375" customWidth="1"/>
+    <col min="9" max="9" width="32.875" customWidth="1"/>
+    <col min="10" max="10" width="57.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="J2" t="s">
-        <v>12</v>
+      <c r="J2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
@@ -471,7 +583,149 @@
       </c>
     </row>
     <row r="9" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
       <c r="K9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" t="s">
         <v>9</v>
       </c>
     </row>

--- a/src/doc/bitmex账户及秘钥.xlsx
+++ b/src/doc/bitmex账户及秘钥.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\express-bitMex\bitMex-web\src\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DAD71C-3293-411A-A2B4-39E20CB595B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BAF8CC-68CB-440D-A8BC-124180DCD4C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="1095" windowWidth="24855" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,141 +38,154 @@
     <t>NEMq3CnplQ9qR9GRhll000XI</t>
   </si>
   <si>
+    <t>apiKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apiSecret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitmex001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱初始密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitmex账户初始密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitmex2019001@protonmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://testnet.bitmex.com/register/XS2C4j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_szNA4XkrB3wxEnfuqMFT0qr</t>
+  </si>
+  <si>
+    <t>KxNHm0WnCaEUKJtakZ8dJkBcc6wxSlisqIBX-SmjFaKUQfHs</t>
+  </si>
+  <si>
+    <t>bitmex2019002@protonmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitmex002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitmex123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zVtf4lLtr4LpBcubuy4IhXFx</t>
+  </si>
+  <si>
+    <t>f49pJyNH5O4UjZekEeUwGykgi5asGXWYc_HBTBhhOuSOzEPy</t>
+  </si>
+  <si>
+    <t>13Oty6FbEaTjY0-8usyQCDd4</t>
+  </si>
+  <si>
+    <t>bitmex2019003@protonmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitmex003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitmex2019004@protonmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitmex2019005@protonmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitmex004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitmex005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bitmex.com/register/03ZFb7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -vWGEDdMozYGzYmose5V630v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>K_TRq2pJAgXwNHR1sAf5EMukEekgP60GjgSIFqT5jFtr_Cr4</t>
-  </si>
-  <si>
-    <t>apiKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apiSecret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bitmex001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真实平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱初始密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bitmex账户初始密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bitmex2019001@protonmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://testnet.bitmex.com/register/XS2C4j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_szNA4XkrB3wxEnfuqMFT0qr</t>
-  </si>
-  <si>
-    <t>KxNHm0WnCaEUKJtakZ8dJkBcc6wxSlisqIBX-SmjFaKUQfHs</t>
-  </si>
-  <si>
-    <t>bitmex2019002@protonmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bitmex002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bitmex123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zVtf4lLtr4LpBcubuy4IhXFx</t>
-  </si>
-  <si>
-    <t>f49pJyNH5O4UjZekEeUwGykgi5asGXWYc_HBTBhhOuSOzEPy</t>
-  </si>
-  <si>
-    <t>13Oty6FbEaTjY0-8usyQCDd4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6wP8DaT_dHWIAZPUqBWX7_Lqb7kGlaysUJ_up8hVyrVU3ZTq</t>
-  </si>
-  <si>
-    <t>bitmex2019003@protonmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bitmex003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bitmex2019004@protonmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bitmex2019005@protonmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bitmex004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bitmex005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TJTiat2SRXFek00NyZyz1GKU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BcyMOuBpw8RMUKW_XworpWqv0Ako7KiSFyPHmwvWj1rOSAjU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>igCPSRBMArkX5HzADnRqPfBx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>O9FhhRJYIY8k-tayIrWprfeErxuxM9Cb4zX96gqXqnxzicyE</t>
-  </si>
-  <si>
-    <t>TJTiat2SRXFek00NyZyz1GKU</t>
-  </si>
-  <si>
-    <t>BcyMOuBpw8RMUKW_XworpWqv0Ako7KiSFyPHmwvWj1rOSAjU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>yn3fOCJ2rQSko4j9yu2SN1IG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>WSEls0P85M2yXQqMn_tJbcqAnZ9E3QcE7TFin7QPJ4X5u_Gc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7IXp4HYQ9xLD6z9X0X7Tly1i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MFTQyoQREifbh3qEq_Dy2qCUn2M5Muh9NBGiCm15funsaxav</t>
-  </si>
-  <si>
-    <t>https://www.bitmex.com/register/03ZFb7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MHxxF7Cwasevh8quIbO5ugjohJIRR5gkJm5WHmmY3tnc8VTV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Ga_wPGyU4u0YOLtmU_aCbu36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pjR7T6Pn-b4oK5HJrE9mxKO9wObAexHh8AzsQunRtKnLizQr</t>
-  </si>
-  <si>
-    <t>MHxxF7Cwasevh8quIbO5ugjohJIRR5gkJm5WHmmY3tnc8VTV</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -vWGEDdMozYGzYmose5V630v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E2:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -528,12 +541,12 @@
   <sheetData>
     <row r="2" spans="5:11" x14ac:dyDescent="0.2">
       <c r="J2" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="5:11" x14ac:dyDescent="0.2">
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="5:11" x14ac:dyDescent="0.2">
@@ -541,104 +554,104 @@
         <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I8" t="s">
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="5:11" x14ac:dyDescent="0.2">
       <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" t="s">
         <v>14</v>
       </c>
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
       <c r="K9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="I10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>19</v>
       </c>
-      <c r="J10" t="s">
-        <v>20</v>
-      </c>
       <c r="K10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="5:11" x14ac:dyDescent="0.2">
       <c r="I11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I12" t="s">
         <v>31</v>
@@ -647,86 +660,86 @@
         <v>32</v>
       </c>
       <c r="K12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="5:11" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="5:11" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/doc/bitmex账户及秘钥.xlsx
+++ b/src/doc/bitmex账户及秘钥.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\express-bitMex\bitMex-web\src\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BAF8CC-68CB-440D-A8BC-124180DCD4C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58725886-80EA-4298-A486-CB24E1068004}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="1095" windowWidth="24855" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NEMq3CnplQ9qR9GRhll000XI</t>
-  </si>
-  <si>
     <t>apiKey</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>K_TRq2pJAgXwNHR1sAf5EMukEekgP60GjgSIFqT5jFtr_Cr4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6wP8DaT_dHWIAZPUqBWX7_Lqb7kGlaysUJ_up8hVyrVU3ZTq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,6 +179,14 @@
   </si>
   <si>
     <t>pjR7T6Pn-b4oK5HJrE9mxKO9wObAexHh8AzsQunRtKnLizQr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iT9AQ87aZXlHWkU76Kq0GvOd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_-sT3KJRf_AulmzKe6tRYR8ihTWq5Lbm4Pguy6zb_1P5XWl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,7 +527,7 @@
   <dimension ref="E2:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -541,12 +542,12 @@
   <sheetData>
     <row r="2" spans="5:11" x14ac:dyDescent="0.2">
       <c r="J2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="5:11" x14ac:dyDescent="0.2">
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="5:11" x14ac:dyDescent="0.2">
@@ -554,192 +555,192 @@
         <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="5:11" x14ac:dyDescent="0.2">
       <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
         <v>13</v>
       </c>
-      <c r="J9" t="s">
-        <v>14</v>
-      </c>
       <c r="K9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="I10" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>18</v>
       </c>
-      <c r="J10" t="s">
-        <v>19</v>
-      </c>
       <c r="K10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="5:11" x14ac:dyDescent="0.2">
       <c r="I11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="5:11" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="5:11" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
